--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1516566.892061872</v>
+        <v>-1519267.760779272</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>151.3890621938001</v>
+        <v>133.4582858480074</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>175.210500082999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -817,16 +817,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>175.4286753102821</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>47.65883542934953</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>254.882137899782</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>307.6689853840062</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>108.5617173417016</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>111.5767559267674</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>35.54361781414397</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>113.2913457628586</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>249.6374431343349</v>
+        <v>75.36795338515462</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>43.7384661432538</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>125.2700607443043</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>118.4312223122543</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>13.94435783112298</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>35.88641949135589</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>41.74133133758713</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>246.4755938422903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>18.70843787977307</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652613</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545298</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>805.7846820932077</v>
+        <v>597.0390406990323</v>
       </c>
       <c r="C2" t="n">
-        <v>652.8664374530056</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="D2" t="n">
-        <v>294.6007388462551</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="E2" t="n">
-        <v>294.6007388462551</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F2" t="n">
-        <v>294.6007388462551</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>294.6007388462551</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,7 +4331,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W2" t="n">
-        <v>1955.989612394221</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X2" t="n">
-        <v>1582.523854133141</v>
+        <v>1373.778212738966</v>
       </c>
       <c r="Y2" t="n">
-        <v>1192.384522157329</v>
+        <v>983.638880763154</v>
       </c>
     </row>
     <row r="3">
@@ -4410,25 +4410,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>551.6025748766954</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>846.306131908167</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1590.995858314207</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>1422.059675386301</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>1271.943035973965</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>1124.029942391572</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2459.755921915737</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>2282.555239784139</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1993.436902287977</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1993.436902287977</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>1993.436902287977</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X4" t="n">
-        <v>1993.436902287977</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y4" t="n">
-        <v>1772.644323144447</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1462.856840871422</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C5" t="n">
-        <v>1462.856840871422</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D5" t="n">
-        <v>1462.856840871422</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>1077.068588273178</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>666.0826834835705</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>1852.996172847234</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X5" t="n">
-        <v>1852.996172847234</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y5" t="n">
-        <v>1462.856840871422</v>
+        <v>1587.556048344953</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
@@ -4650,19 +4650,19 @@
         <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495378</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
         <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2362.9309660677</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>415.4991317202567</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="C7" t="n">
-        <v>415.4991317202567</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="D7" t="n">
-        <v>415.4991317202567</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E7" t="n">
-        <v>415.4991317202567</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>415.4991317202567</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4738,10 +4738,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1421.158919724658</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485138</v>
+        <v>1132.040582228495</v>
       </c>
       <c r="V7" t="n">
-        <v>825.1371474485138</v>
+        <v>877.3560940226084</v>
       </c>
       <c r="W7" t="n">
-        <v>825.1371474485138</v>
+        <v>587.9389239856478</v>
       </c>
       <c r="X7" t="n">
-        <v>597.1475965504965</v>
+        <v>587.9389239856478</v>
       </c>
       <c r="Y7" t="n">
-        <v>597.1475965504965</v>
+        <v>367.1463448421176</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>474.7217947496364</v>
+        <v>1117.969728759938</v>
       </c>
       <c r="C8" t="n">
-        <v>105.7592778092247</v>
+        <v>1117.969728759938</v>
       </c>
       <c r="D8" t="n">
-        <v>105.7592778092247</v>
+        <v>759.7040301531877</v>
       </c>
       <c r="E8" t="n">
-        <v>105.7592778092247</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
-        <v>98.81377706002125</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>87.14943082471419</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>1860.877716005864</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>1508.10906073575</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.46096678957</v>
+        <v>1508.10906073575</v>
       </c>
       <c r="Y8" t="n">
-        <v>861.3216348137582</v>
+        <v>1117.969728759938</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057879</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143495</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>346.8756322024072</v>
+        <v>494.0245808582381</v>
       </c>
       <c r="C10" t="n">
-        <v>346.8756322024072</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="D10" t="n">
-        <v>346.8756322024072</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8756322024072</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
         <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1085.074932280915</v>
+        <v>1038.126239101086</v>
       </c>
       <c r="V10" t="n">
-        <v>1085.074932280915</v>
+        <v>783.4417508951988</v>
       </c>
       <c r="W10" t="n">
-        <v>795.6577622439547</v>
+        <v>494.0245808582381</v>
       </c>
       <c r="X10" t="n">
-        <v>567.6682113459374</v>
+        <v>494.0245808582381</v>
       </c>
       <c r="Y10" t="n">
-        <v>346.8756322024072</v>
+        <v>494.0245808582381</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327634</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048565</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D13" t="n">
-        <v>594.8179559048565</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E13" t="n">
-        <v>446.9048623224634</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630031</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5282,13 +5282,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5364,13 +5364,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683105</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.4916164683283</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C16" t="n">
-        <v>754.5554335404214</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>604.4387941280856</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>604.4387941280856</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5443,43 +5443,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>1130.19898568143</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683105</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2410.714175003133</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2410.714175003133</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5741,58 +5741,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876688</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>430.7826650753331</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>282.8695714929399</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>135.9796239950296</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>135.9796239950296</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>135.9796239950296</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,19 +6069,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>175.8744207939068</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.445529061503</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6218,46 +6218,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6601,28 +6601,28 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311325</v>
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,7 +6853,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6862,7 +6862,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319314</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7099,7 +7099,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,25 +7120,25 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7348,16 +7348,16 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150024</v>
@@ -7558,22 +7558,22 @@
         <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,10 +7582,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7594,13 +7594,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7731,10 +7731,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
@@ -7804,19 +7804,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
         <v>2179.340199382518</v>
@@ -7834,7 +7834,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -7843,10 +7843,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,19 +8058,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>255.842170046095</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>199.751631150407</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>98.24448441976898</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>84.94186588374689</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780641</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>280.1079373569283</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -9164,10 +9164,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-3.940996767551754e-13</v>
       </c>
       <c r="L17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>231.8146059230002</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>200.9907192867925</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>125.8080524794063</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>101.6825818796775</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>40.25407754796456</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>26.98982571067691</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>211.7652975579142</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>30.48882721876579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>39.5245049809784</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>39.70888054695388</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431582</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.836930773104541e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1278575.222091908</v>
+        <v>1278575.222091907</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1278575.222091908</v>
+        <v>1278575.222091907</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1278575.222091908</v>
+        <v>1278575.222091907</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1278575.222091908</v>
+        <v>1278575.222091907</v>
       </c>
     </row>
     <row r="10">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116044.8438455267</v>
+        <v>116044.8438455268</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262496</v>
@@ -26320,13 +26320,13 @@
         <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.654945751</v>
       </c>
       <c r="F2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="G2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="H2" t="n">
         <v>141250.6549457511</v>
@@ -26338,13 +26338,13 @@
         <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="L2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="N2" t="n">
         <v>143682.3097262497</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>19427.71799363177</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363178</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44177.68267983173</v>
+        <v>44177.68267983169</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731987</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731988</v>
+        <v>8117.31242673194</v>
       </c>
       <c r="H4" t="n">
+        <v>8117.312426731957</v>
+      </c>
+      <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="I4" t="n">
-        <v>8117.312426732</v>
-      </c>
       <c r="J4" t="n">
-        <v>8117.312426731958</v>
+        <v>8117.312426731949</v>
       </c>
       <c r="K4" t="n">
-        <v>16108.17168982546</v>
+        <v>16108.17168982541</v>
       </c>
       <c r="L4" t="n">
         <v>16108.17168982544</v>
       </c>
       <c r="M4" t="n">
-        <v>16108.17168982546</v>
+        <v>16108.17168982544</v>
       </c>
       <c r="N4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982544</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982546</v>
+        <v>16108.17168982544</v>
       </c>
       <c r="P4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982544</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1135822.394850069</v>
+        <v>-1136217.215791222</v>
       </c>
       <c r="C6" t="n">
         <v>-83573.46297545888</v>
       </c>
       <c r="D6" t="n">
-        <v>-83573.46297545888</v>
+        <v>-83573.46297545881</v>
       </c>
       <c r="E6" t="n">
-        <v>-475474.6289294338</v>
+        <v>-475509.3668548695</v>
       </c>
       <c r="F6" t="n">
-        <v>32010.81269511204</v>
+        <v>31976.07476967628</v>
       </c>
       <c r="G6" t="n">
-        <v>32010.81269511206</v>
+        <v>31976.07476967637</v>
       </c>
       <c r="H6" t="n">
-        <v>32010.81269511201</v>
+        <v>31976.07476967633</v>
       </c>
       <c r="I6" t="n">
-        <v>32010.81269511201</v>
+        <v>31976.07476967634</v>
       </c>
       <c r="J6" t="n">
-        <v>-135594.3651148705</v>
+        <v>-135629.1030403063</v>
       </c>
       <c r="K6" t="n">
-        <v>4982.30418887698</v>
+        <v>4982.304188877068</v>
       </c>
       <c r="L6" t="n">
-        <v>24410.02218250882</v>
+        <v>24410.02218250885</v>
       </c>
       <c r="M6" t="n">
         <v>-108197.2715464179</v>
       </c>
       <c r="N6" t="n">
-        <v>24410.02218250881</v>
+        <v>24410.02218250882</v>
       </c>
       <c r="O6" t="n">
-        <v>24410.02218250878</v>
+        <v>24410.02218250879</v>
       </c>
       <c r="P6" t="n">
-        <v>4982.304188877039</v>
+        <v>4982.304188877068</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,16 +26805,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>213.8838295772074</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>153.6923223338904</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>45.32002068692981</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>170.9258179227453</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>127.8517037636985</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>103.8787173889477</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>57.74488270310255</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>109.1719400704445</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>265.4749347482614</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>214.4609127072763</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>36.5897109868657</v>
+        <v>210.859200736046</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29326,13 +29326,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32084,16 +32084,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>302.967544750805</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>165.2255134509767</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M18" t="n">
-        <v>302.967544750805</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614911</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>220.7280629601519</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>522.1224556861836</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439381</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935914</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>211.0222436375116</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>442.4296662895798</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>590.9487307432809</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34799,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>489.4415840126429</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>201.4225882146015</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215489</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>615.5326193530514</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>160.8335108287866</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>31.25110603664647</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35811,7 +35811,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010438</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M18" t="n">
-        <v>160.8335108287866</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394727</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>82.88662398579289</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>379.5262112417391</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640639</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715731</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,19 +36996,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
